--- a/public/remote_data.xlsx
+++ b/public/remote_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1659,9 +1659,20 @@
         <v>/photos/1736660753013-1000024375.jpg</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Park1</v>
+      </c>
+      <c r="B115" t="str">
+        <v>103</v>
+      </c>
+      <c r="D115" t="str">
+        <v>/photos/Park1_103.jpg</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D114"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D115"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/remote_data.xlsx
+++ b/public/remote_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1670,9 +1670,20 @@
         <v>/photos/Park1_103.jpg</v>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>sc</v>
+      </c>
+      <c r="B116" t="str">
+        <v>213</v>
+      </c>
+      <c r="D116" t="str">
+        <v>/photos/Recipe.png</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D115"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D116"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/remote_data.xlsx
+++ b/public/remote_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1681,9 +1681,20 @@
         <v>/photos/Recipe.png</v>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>jgiu</v>
+      </c>
+      <c r="B117" t="str">
+        <v>123</v>
+      </c>
+      <c r="C117" t="str">
+        <v>/photos/Recipe.png</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D116"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/remote_data.xlsx
+++ b/public/remote_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1692,9 +1692,20 @@
         <v>/photos/Recipe.png</v>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>logo</v>
+      </c>
+      <c r="B118" t="str">
+        <v>512</v>
+      </c>
+      <c r="C118" t="str">
+        <v>/photos/Recipe-removebg-preview.png</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D118"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/remote_data.xlsx
+++ b/public/remote_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1703,9 +1703,20 @@
         <v>/photos/Recipe-removebg-preview.png</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>x</v>
+      </c>
+      <c r="B119" t="str">
+        <v>102</v>
+      </c>
+      <c r="C119" t="str">
+        <v>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTUnvISVTYopMAy17o3mB2lfSPeEjoKfAdV2w&amp;s</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D118"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D119"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/remote_data.xlsx
+++ b/public/remote_data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1714,9 +1714,20 @@
         <v>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTUnvISVTYopMAy17o3mB2lfSPeEjoKfAdV2w&amp;s</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>231</v>
+      </c>
+      <c r="B120" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="C120" t="str">
+        <v>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTUnvISVTYopMAy17o3mB2lfSPeEjoKfAdV2w&amp;s</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D119"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D120"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/remote_data.xlsx
+++ b/public/remote_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="289">
   <si>
     <t>name</t>
   </si>
@@ -888,6 +888,12 @@
   </si>
   <si>
     <t>/photos/VU-2_47.jpeg</t>
+  </si>
+  <si>
+    <t>WILLET CH 60</t>
+  </si>
+  <si>
+    <t>/photos/WILLET-CH-60_65.jpeg</t>
   </si>
 </sst>
 </file>
@@ -1893,13 +1899,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:H120"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.4" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3147,11 +3156,22 @@
         <v>286</v>
       </c>
     </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>287</v>
+      </c>
+      <c r="B114">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D113" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D112 A113:B113 D113" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>